--- a/BackTest/2020-01-25 BackTest AMO.xlsx
+++ b/BackTest/2020-01-25 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-6094814.637500001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7662462.876500001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6209053.529500001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5416753.647500001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5957023.553200001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7232441.890200001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1398743.082800001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1396551.814600001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2739776.250600001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1566067.061600001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2392269.992600001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3978681.270600001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5802660.251600001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5800438.251600001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7135186.925600002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15632272.7205</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-17620506.82</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-17645934.107</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-16879061.512</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-16876976.9628</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-17601470.7458</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16476606.8436</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-17853734.3296</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-18968113.1816</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-18966082.99200001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-20461871.15100001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-19508531.78400001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-20926045.57810001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-20593487.16030001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4048,14 +4048,10 @@
         <v>-15886525.89560002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4088,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4124,19 +4114,11 @@
         <v>-16632392.98560002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4561,7 +4543,7 @@
         <v>-15975705.30160002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4759,7 +4741,7 @@
         <v>-15645150.56960002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4825,7 +4807,7 @@
         <v>-16238453.93660002</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5188,14 +5170,10 @@
         <v>-10352956.46760002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5228,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5501,7 +5467,7 @@
         <v>-9449844.288900021</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5633,7 +5599,7 @@
         <v>-8564311.02090002</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5699,7 +5665,7 @@
         <v>-6767817.197900021</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5765,7 +5731,7 @@
         <v>-8259183.57590002</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -12431,10 +12397,14 @@
         <v>-33992094.74760001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -12464,15 +12434,19 @@
         <v>-35216658.51060001</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0.2522</v>
       </c>
       <c r="J365" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+        <v>0.2526</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +12475,13 @@
         <v>-35216658.51060001</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J366" t="n">
-        <v>0.2522</v>
+        <v>0.2526</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12540,52 +12516,56 @@
         <v>-33873434.07460001</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>0.2521</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K367" t="inlineStr">
+        <v>0.2521</v>
+      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1173709.189</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-33873434.07460001</v>
+      </c>
+      <c r="H368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K368" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F368" t="n">
-        <v>1173709.189</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-33873434.07460001</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12614,11 +12594,19 @@
         <v>-38595234.97980001</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12647,11 +12635,19 @@
         <v>-37531710.70180001</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12683,8 +12679,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12716,8 +12718,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12749,8 +12757,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12779,11 +12793,19 @@
         <v>-27773086.02880001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12815,8 +12837,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12848,8 +12876,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12881,8 +12915,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12914,8 +12954,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12944,15 +12990,19 @@
         <v>-25936823.13290001</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>0.2524</v>
       </c>
       <c r="J379" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+        <v>0.2521</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12981,17 +13031,17 @@
         <v>-24559695.64690001</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>0.253</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -13026,11 +13076,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -13064,8 +13114,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13097,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13130,8 +13192,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13160,11 +13228,19 @@
         <v>-25377422.81490001</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +13269,19 @@
         <v>-26373140.99390001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13226,15 +13310,19 @@
         <v>-25207907.56790001</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>0.2523</v>
       </c>
       <c r="J387" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K387" t="inlineStr"/>
+        <v>0.2521</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13263,15 +13351,17 @@
         <v>-25983255.92490001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.2532</v>
+      </c>
       <c r="J388" t="n">
-        <v>0.2523</v>
+        <v>0.2521</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -13302,15 +13392,17 @@
         <v>-25046868.08290001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J389" t="n">
-        <v>0.2523</v>
+        <v>0.2521</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L389" t="n">
@@ -13341,11 +13433,17 @@
         <v>-23974868.04290001</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13374,11 +13472,17 @@
         <v>-24724789.11290001</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13407,11 +13511,17 @@
         <v>-24919789.11290001</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13443,8 +13553,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13476,8 +13592,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13509,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13542,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13575,8 +13709,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13641,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13674,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13740,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13773,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13806,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13839,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +14057,19 @@
         <v>-26775877.27390002</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13902,11 +14098,19 @@
         <v>-25636071.13490002</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +14142,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13971,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +14220,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +14259,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14070,8 +14298,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14103,8 +14337,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14136,8 +14376,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14169,8 +14415,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14202,8 +14454,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14235,8 +14493,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14268,8 +14532,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14301,8 +14571,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14334,8 +14610,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14367,8 +14649,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14400,8 +14688,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14433,8 +14727,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14466,8 +14766,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14499,8 +14805,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14532,8 +14844,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14565,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14598,8 +14922,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14631,8 +14961,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14664,8 +15000,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14697,8 +15039,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14730,8 +15078,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14763,8 +15117,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14796,8 +15156,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14829,8 +15195,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14862,8 +15234,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14895,8 +15273,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14928,8 +15312,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14961,8 +15351,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14994,8 +15390,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15027,8 +15429,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15060,8 +15468,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15093,8 +15507,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15126,8 +15546,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15159,8 +15585,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15192,8 +15624,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15225,8 +15663,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15258,8 +15702,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15291,8 +15741,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15324,8 +15780,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15357,8 +15819,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15390,8 +15858,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15423,8 +15897,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15456,8 +15936,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15489,8 +15975,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15522,8 +16014,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15555,8 +16053,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15588,8 +16092,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15621,8 +16131,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15654,8 +16170,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15687,8 +16209,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15720,8 +16248,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15753,8 +16287,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15786,8 +16326,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15819,8 +16365,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15852,8 +16404,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15885,8 +16443,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15918,8 +16482,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15951,8 +16521,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15984,8 +16560,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16017,8 +16599,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16050,8 +16638,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16083,8 +16677,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16116,8 +16716,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16149,8 +16755,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16182,8 +16794,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16215,8 +16833,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16248,8 +16872,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16281,8 +16911,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16314,8 +16950,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16347,8 +16989,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16380,8 +17028,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16413,8 +17067,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16446,8 +17106,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16479,8 +17145,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16512,8 +17184,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16545,8 +17223,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16578,8 +17262,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16611,8 +17301,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16644,8 +17340,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16677,8 +17379,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16710,8 +17418,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16743,8 +17457,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16776,8 +17496,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16809,8 +17535,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16842,8 +17574,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16875,8 +17613,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16908,8 +17652,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16941,8 +17691,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16974,8 +17730,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17007,8 +17769,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17040,8 +17808,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17073,8 +17847,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17106,8 +17886,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17139,8 +17925,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17172,8 +17964,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17205,8 +18003,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17238,8 +18042,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17271,8 +18081,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17304,8 +18120,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17337,8 +18159,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17370,8 +18198,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17400,11 +18234,17 @@
         <v>-10812089.83930004</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17436,8 +18276,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +18312,17 @@
         <v>-12822699.72130004</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17502,8 +18354,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17532,13 +18390,19 @@
         <v>-13570398.79130004</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L517" t="n">
-        <v>1</v>
+        <v>0.9973800079333598</v>
       </c>
       <c r="M517" t="inlineStr"/>
     </row>
@@ -17598,7 +18462,7 @@
         <v>-16087021.08380004</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20403,7 +21267,7 @@
         <v>-7599000.681000046</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20436,7 +21300,7 @@
         <v>-5883270.997000046</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20469,7 +21333,7 @@
         <v>-5225420.174900046</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20502,7 +21366,7 @@
         <v>-6407605.125900045</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20568,7 +21432,7 @@
         <v>-6199553.805800045</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20700,7 +21564,7 @@
         <v>-8953808.777800046</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20766,7 +21630,7 @@
         <v>-11148663.43280005</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20898,7 +21762,7 @@
         <v>-11850796.85080005</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20909,6 +21773,6 @@
       <c r="M619" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest AMO.xlsx
+++ b/BackTest/2020-01-25 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-6094814.637500001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7662462.876500001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6209053.529500001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5416753.647500001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1398743.082800001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1396551.814600001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2739776.250600001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1566067.061600001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2392269.992600001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3978681.270600001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5802660.251600001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5800438.251600001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7135186.925600002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15632272.7205</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-17620506.82</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-17645934.107</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-16879061.512</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-16876976.9628</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-17601470.7458</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16476606.8436</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-17853734.3296</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-18968113.1816</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-18966082.99200001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-20461871.15100001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-19508531.78400001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-20926045.57810001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-20593487.16030001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -12199,10 +12199,14 @@
         <v>-35403125.28260002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -12232,11 +12236,19 @@
         <v>-34551495.06460001</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12280,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12331,10 +12349,14 @@
         <v>-34322649.48060001</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
@@ -12367,8 +12389,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,15 +12425,17 @@
         <v>-33992094.74760001</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+        <v>0.2521</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12440,13 +12470,9 @@
         <v>0.2522</v>
       </c>
       <c r="J365" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2522</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12481,7 +12507,7 @@
         <v>0.2521</v>
       </c>
       <c r="J366" t="n">
-        <v>0.2526</v>
+        <v>0.2522</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12522,9 +12548,13 @@
         <v>0.2521</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K367" t="inlineStr"/>
+        <v>0.2522</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12559,13 +12589,9 @@
         <v>0.2524</v>
       </c>
       <c r="J368" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2524</v>
+      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12600,7 +12626,7 @@
         <v>0.2524</v>
       </c>
       <c r="J369" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12641,7 +12667,7 @@
         <v>0.2521</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12676,11 +12702,13 @@
         <v>-38391816.68280001</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J371" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12715,11 +12743,13 @@
         <v>-38391816.68280001</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J372" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12754,11 +12784,13 @@
         <v>-39082407.41580001</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J373" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12799,7 +12831,7 @@
         <v>0.2523</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12838,7 +12870,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12873,11 +12905,13 @@
         <v>-27752102.74180001</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="J376" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12912,11 +12946,13 @@
         <v>-28518975.33680001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J377" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -12955,7 +12991,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -12990,13 +13026,11 @@
         <v>-25936823.13290001</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13031,13 +13065,11 @@
         <v>-24559695.64690001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13076,7 +13108,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13115,7 +13147,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13154,7 +13186,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13193,7 +13225,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13228,13 +13260,11 @@
         <v>-25377422.81490001</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13269,13 +13299,11 @@
         <v>-26373140.99390001</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13310,13 +13338,11 @@
         <v>-25207907.56790001</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13351,13 +13377,11 @@
         <v>-25983255.92490001</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0.2532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13392,13 +13416,11 @@
         <v>-25046868.08290001</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0.2531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13437,7 +13459,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13476,7 +13498,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13515,7 +13537,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13554,7 +13576,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13593,7 +13615,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13632,7 +13654,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13671,7 +13693,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13710,7 +13732,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13749,7 +13771,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13788,7 +13810,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13827,7 +13849,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13866,7 +13888,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13905,7 +13927,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13944,7 +13966,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13983,7 +14005,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14022,7 +14044,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14057,13 +14079,11 @@
         <v>-26775877.27390002</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14098,13 +14118,11 @@
         <v>-25636071.13490002</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14143,7 +14161,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14182,7 +14200,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14221,7 +14239,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14260,7 +14278,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14299,7 +14317,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14338,7 +14356,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14377,7 +14395,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14416,7 +14434,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14455,7 +14473,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14494,7 +14512,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14533,7 +14551,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14572,7 +14590,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14611,7 +14629,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14646,19 +14664,19 @@
         <v>-22266813.24840002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>0.2521</v>
+        <v>0.2524</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L421" t="n">
-        <v>1</v>
+        <v>0.992622820919176</v>
       </c>
       <c r="M421" t="inlineStr"/>
     </row>
@@ -14685,17 +14703,11 @@
         <v>-23354725.32840002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14727,14 +14739,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14766,14 +14772,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14805,14 +14805,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14844,14 +14838,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14883,14 +14871,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14922,14 +14904,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14961,14 +14937,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15000,14 +14970,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15039,14 +15003,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15078,14 +15036,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15117,14 +15069,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15156,14 +15102,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15195,14 +15135,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15234,14 +15168,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15273,14 +15201,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15312,14 +15234,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15351,14 +15267,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15390,14 +15300,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15429,14 +15333,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15468,14 +15366,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15507,14 +15399,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15546,14 +15432,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15585,14 +15465,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15624,14 +15498,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15663,14 +15531,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15702,14 +15564,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15741,14 +15597,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15780,14 +15630,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15819,14 +15663,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15858,14 +15696,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15897,14 +15729,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15936,14 +15762,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15975,14 +15795,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16014,14 +15828,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16053,14 +15861,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16092,14 +15894,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16131,14 +15927,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16170,14 +15960,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16209,14 +15993,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16248,14 +16026,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16287,14 +16059,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16326,14 +16092,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16365,14 +16125,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16404,14 +16158,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16443,14 +16191,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16482,14 +16224,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16521,14 +16257,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16560,14 +16290,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16599,14 +16323,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16638,14 +16356,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16677,14 +16389,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16716,14 +16422,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16755,14 +16455,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16794,14 +16488,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16833,14 +16521,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16872,14 +16554,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16911,14 +16587,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16950,14 +16620,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16989,14 +16653,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17028,14 +16686,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17067,14 +16719,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17106,14 +16752,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17145,14 +16785,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17184,14 +16818,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17223,14 +16851,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17262,14 +16884,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17301,14 +16917,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17340,14 +16950,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17379,14 +16983,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17418,14 +17016,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17457,14 +17049,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17496,14 +17082,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17535,14 +17115,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17574,14 +17148,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17613,14 +17181,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17652,14 +17214,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17691,14 +17247,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17730,14 +17280,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17769,14 +17313,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17808,14 +17346,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17847,14 +17379,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17886,14 +17412,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17925,14 +17445,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17964,14 +17478,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18003,14 +17511,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18042,14 +17544,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18081,14 +17577,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18120,14 +17610,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18159,14 +17643,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18198,14 +17676,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18237,14 +17709,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18276,14 +17742,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18315,14 +17775,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18354,14 +17808,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18390,19 +17838,13 @@
         <v>-13570398.79130004</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
-        <v>0.9973800079333598</v>
+        <v>1</v>
       </c>
       <c r="M517" t="inlineStr"/>
     </row>
@@ -18462,7 +17904,7 @@
         <v>-16087021.08380004</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18825,7 +18267,7 @@
         <v>-16409100.05380004</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -21773,6 +21215,6 @@
       <c r="M619" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest AMO.xlsx
+++ b/BackTest/2020-01-25 BackTest AMO.xlsx
@@ -1177,7 +1177,7 @@
         <v>-3459369.5377</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3366136.1517</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3584177.889200001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5957023.553200001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4375077.095700001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5192804.264700001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5273583.891000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6786323.575000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3604138.624000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2392269.992600001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2568241.992600001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3978681.270600001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5802660.251600001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-7135186.925600002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-15632272.7205</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -12199,14 +12199,10 @@
         <v>-35403125.28260002</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J358" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -12236,19 +12232,11 @@
         <v>-34551495.06460001</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J359" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12349,14 +12331,10 @@
         <v>-34322649.48060001</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J362" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
@@ -12389,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12425,17 +12397,15 @@
         <v>-33992094.74760001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J364" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2526</v>
+      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12470,9 +12440,13 @@
         <v>0.2522</v>
       </c>
       <c r="J365" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+        <v>0.2526</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +12481,7 @@
         <v>0.2521</v>
       </c>
       <c r="J366" t="n">
-        <v>0.2522</v>
+        <v>0.2526</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12548,13 +12522,9 @@
         <v>0.2521</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2521</v>
+      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12589,9 +12559,13 @@
         <v>0.2524</v>
       </c>
       <c r="J368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K368" t="inlineStr"/>
+        <v>0.2521</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12626,7 +12600,7 @@
         <v>0.2524</v>
       </c>
       <c r="J369" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12667,7 +12641,7 @@
         <v>0.2521</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12702,13 +12676,11 @@
         <v>-38391816.68280001</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12749,7 +12721,7 @@
         <v>0.2525</v>
       </c>
       <c r="J372" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12790,7 +12762,7 @@
         <v>0.2525</v>
       </c>
       <c r="J373" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12831,7 +12803,7 @@
         <v>0.2523</v>
       </c>
       <c r="J374" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12870,7 +12842,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12905,13 +12877,11 @@
         <v>-27752102.74180001</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12946,13 +12916,11 @@
         <v>-28518975.33680001</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -12991,7 +12959,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13030,7 +12998,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13069,7 +13037,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13108,7 +13076,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13147,7 +13115,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13186,7 +13154,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13225,7 +13193,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13264,7 +13232,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13303,7 +13271,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13342,7 +13310,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13381,7 +13349,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13420,7 +13388,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13459,7 +13427,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13498,7 +13466,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13537,7 +13505,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13576,7 +13544,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13615,7 +13583,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13654,7 +13622,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13693,7 +13661,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13732,7 +13700,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13771,7 +13739,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13810,7 +13778,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13849,7 +13817,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13888,7 +13856,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13927,7 +13895,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13966,7 +13934,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14005,7 +13973,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14044,7 +14012,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14083,7 +14051,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14122,7 +14090,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14161,7 +14129,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14200,7 +14168,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14239,7 +14207,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14278,7 +14246,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14317,7 +14285,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14356,7 +14324,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14395,7 +14363,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14434,7 +14402,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14473,7 +14441,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14512,7 +14480,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14551,7 +14519,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14590,7 +14558,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14629,7 +14597,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14664,19 +14632,19 @@
         <v>-22266813.24840002</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>0.2524</v>
+        <v>0.2521</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L421" t="n">
-        <v>0.992622820919176</v>
+        <v>1</v>
       </c>
       <c r="M421" t="inlineStr"/>
     </row>
@@ -14703,11 +14671,17 @@
         <v>-23354725.32840002</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +14713,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +14752,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +14791,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +14908,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +14947,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +14986,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +15025,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +15064,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +15103,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +15142,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +15181,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +15220,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +15259,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +15337,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +15376,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +15415,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +15454,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +15532,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +15571,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +15610,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +15649,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +15688,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +15727,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +15766,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +15844,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15729,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15762,8 +15922,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +16000,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +16078,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +16117,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +16156,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +16195,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16026,8 +16234,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +16273,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +16312,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +16351,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16191,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16224,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16257,8 +16507,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +16546,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +16585,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +16624,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +16663,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +16741,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +16780,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +16819,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +16858,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16917,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16983,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17016,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17082,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17148,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17181,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17214,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17247,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17313,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17346,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17379,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17412,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17445,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17478,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17511,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17544,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17577,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17610,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17643,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17676,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17709,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17742,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17775,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17808,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17841,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17874,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17907,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17940,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17973,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18006,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18039,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18072,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18105,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18138,8 +18730,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18171,8 +18769,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18204,8 +18808,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18237,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18267,11 +18883,17 @@
         <v>-16409100.05380004</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18303,8 +18925,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18336,8 +18964,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18369,8 +19003,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18402,8 +19042,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18435,8 +19081,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18468,8 +19120,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18501,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18534,8 +19198,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18567,8 +19237,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18600,8 +19276,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18633,8 +19315,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18666,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18699,8 +19393,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18732,8 +19432,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18765,8 +19471,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18798,8 +19510,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18831,8 +19549,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18864,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18897,8 +19627,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18930,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18963,8 +19705,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18996,8 +19744,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19029,8 +19783,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19062,8 +19822,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19095,8 +19861,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19128,8 +19900,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19161,8 +19939,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19194,8 +19978,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19227,8 +20017,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19260,8 +20056,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19293,8 +20095,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19326,8 +20134,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19359,8 +20173,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19392,8 +20212,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19425,8 +20251,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19458,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19491,8 +20329,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19524,8 +20368,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19557,8 +20407,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19590,8 +20446,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19623,8 +20485,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19656,8 +20524,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19689,8 +20563,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19722,8 +20602,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19755,8 +20641,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19788,8 +20680,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19821,8 +20719,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19854,8 +20758,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19887,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19920,8 +20836,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19953,8 +20875,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19986,8 +20914,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20019,8 +20953,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20052,8 +20992,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20085,8 +21031,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20118,8 +21070,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20151,8 +21109,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20184,8 +21148,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20217,8 +21187,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20250,8 +21226,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20283,8 +21265,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20316,8 +21304,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20349,8 +21343,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20382,8 +21382,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20415,8 +21421,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20448,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20481,8 +21499,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20514,8 +21538,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20547,8 +21577,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20580,8 +21616,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20613,8 +21655,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20646,8 +21694,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20679,8 +21733,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20712,8 +21772,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20745,8 +21811,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20778,8 +21850,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20808,13 +21886,19 @@
         <v>-6407605.125900045</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L607" t="n">
-        <v>1</v>
+        <v>0.9997600158667196</v>
       </c>
       <c r="M607" t="inlineStr"/>
     </row>
@@ -20874,7 +21958,7 @@
         <v>-6199553.805800045</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20907,7 +21991,7 @@
         <v>-7542778.241800045</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21006,7 +22090,7 @@
         <v>-8953808.777800046</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21039,7 +22123,7 @@
         <v>-9813914.758800047</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
